--- a/Code/Phones/diacritics.xlsx
+++ b/Code/Phones/diacritics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phgeorgis/Documents/School/MSc/Saarland_University/Courses/Thesis/Code/Distance_Measures/Phones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phgeorgis/Documents/School/MSc/Saarland_University/Courses/Thesis/Code/Phones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B8B97-A607-AD40-9907-6C77C84D4823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540A779-CA70-A940-94E6-50D6250B22E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="162">
   <si>
     <t>Diacritic</t>
   </si>
@@ -487,6 +487,36 @@
   </si>
   <si>
     <t>advancedTongueRoot</t>
+  </si>
+  <si>
+    <t>̏</t>
+  </si>
+  <si>
+    <t>tone: extra low</t>
+  </si>
+  <si>
+    <t>tone: extra high</t>
+  </si>
+  <si>
+    <t>̋</t>
+  </si>
+  <si>
+    <t>tone_contour</t>
+  </si>
+  <si>
+    <t>tone_falling</t>
+  </si>
+  <si>
+    <t>tone_high</t>
+  </si>
+  <si>
+    <t>tone_central</t>
+  </si>
+  <si>
+    <t>tone_mid</t>
+  </si>
+  <si>
+    <t>tone_rising</t>
   </si>
 </sst>
 </file>
@@ -864,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="185" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="185" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2251,16 +2281,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>126</v>
+      <c r="D71" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>5</v>
@@ -2271,16 +2301,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>103</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>126</v>
+      <c r="D72" t="s">
+        <v>157</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
@@ -2290,11 +2320,11 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>124</v>
+      <c r="A73" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>103</v>
@@ -2311,58 +2341,58 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F76" t="s">
@@ -2371,18 +2401,18 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" t="s">
-        <v>28</v>
+        <v>111</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="s">
@@ -2390,159 +2420,159 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="4" t="s">
-        <v>121</v>
+      <c r="A78" t="s">
+        <v>124</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="4" t="s">
-        <v>121</v>
+      <c r="A79" t="s">
+        <v>124</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="4" t="s">
-        <v>122</v>
+      <c r="A80" t="s">
+        <v>124</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" t="s">
-        <v>151</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" t="s">
-        <v>77</v>
+      <c r="A85" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F85" t="s">
@@ -2550,20 +2580,20 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" t="s">
-        <v>77</v>
+      <c r="A86" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
+        <v>158</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F86" t="s">
         <v>67</v>
@@ -2571,38 +2601,38 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>93</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F87" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>60</v>
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" t="s">
         <v>5</v>
       </c>
       <c r="F88" t="s">
@@ -2611,19 +2641,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>60</v>
+        <v>125</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
       </c>
       <c r="F89" t="s">
         <v>67</v>
@@ -2631,121 +2661,361 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="4" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="D90" t="s">
+        <v>151</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="4" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="D91" t="s">
+        <v>150</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="4" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="D92" t="s">
+        <v>150</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="4" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="D93" t="s">
+        <v>151</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="4" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F94" t="s">
-        <v>73</v>
+      <c r="F94" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C107" t="s">
         <v>103</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="E107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
         <v>73</v>
       </c>
     </row>
